--- a/artfynd/A 63813-2019.xlsx
+++ b/artfynd/A 63813-2019.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108600571</v>
+        <v>108600717</v>
       </c>
       <c r="B3" t="n">
-        <v>8377</v>
+        <v>89412</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,36 +814,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -851,10 +853,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528457.9539003669</v>
+        <v>528514.2341294074</v>
       </c>
       <c r="R3" t="n">
-        <v>6541148.642409162</v>
+        <v>6541351.991765272</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -924,10 +926,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108600717</v>
+        <v>108600671</v>
       </c>
       <c r="B4" t="n">
-        <v>89412</v>
+        <v>8377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -936,38 +938,36 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528514.2341294074</v>
+        <v>528575.3995984152</v>
       </c>
       <c r="R4" t="n">
-        <v>6541351.991765272</v>
+        <v>6541244.801401596</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108600671</v>
+        <v>108600691</v>
       </c>
       <c r="B5" t="n">
-        <v>8377</v>
+        <v>78098</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,36 +1060,34 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1097,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>528575.3995984152</v>
+        <v>528584.0134725916</v>
       </c>
       <c r="R5" t="n">
-        <v>6541244.801401596</v>
+        <v>6541265.982774138</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1170,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108600691</v>
+        <v>108600864</v>
       </c>
       <c r="B6" t="n">
-        <v>78098</v>
+        <v>5426</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1186,30 +1184,32 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6453</v>
+        <v>101410</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>528584.0134725916</v>
+        <v>528502.4862113618</v>
       </c>
       <c r="R6" t="n">
-        <v>6541265.982774138</v>
+        <v>6541335.938193527</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108600554</v>
+        <v>108600622</v>
       </c>
       <c r="B7" t="n">
-        <v>8377</v>
+        <v>89412</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,36 +1302,38 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1339,10 +1341,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>528511.5568710293</v>
+        <v>528458.0765920902</v>
       </c>
       <c r="R7" t="n">
-        <v>6541087.231412024</v>
+        <v>6541201.695022714</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1412,10 +1414,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108600864</v>
+        <v>108600779</v>
       </c>
       <c r="B8" t="n">
-        <v>5426</v>
+        <v>8377</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,25 +1426,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101410</v>
+        <v>106545</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1451,7 +1453,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1461,10 +1463,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>528502.4862113618</v>
+        <v>528499.9212518559</v>
       </c>
       <c r="R8" t="n">
-        <v>6541335.938193527</v>
+        <v>6541472.918336567</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1534,10 +1536,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108600622</v>
+        <v>108600651</v>
       </c>
       <c r="B9" t="n">
-        <v>89412</v>
+        <v>8367</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1546,38 +1548,36 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>106554</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>528458.0765920902</v>
+        <v>528559.4282089664</v>
       </c>
       <c r="R9" t="n">
-        <v>6541201.695022714</v>
+        <v>6541241.59220575</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108600779</v>
+        <v>108600738</v>
       </c>
       <c r="B10" t="n">
-        <v>8377</v>
+        <v>78098</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1670,36 +1670,34 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1707,10 +1705,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>528499.9212518559</v>
+        <v>528501.4884462073</v>
       </c>
       <c r="R10" t="n">
-        <v>6541472.918336567</v>
+        <v>6541400.825744567</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1780,7 +1778,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108600651</v>
+        <v>108600803</v>
       </c>
       <c r="B11" t="n">
         <v>8367</v>
@@ -1829,10 +1827,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>528559.4282089664</v>
+        <v>528455.3571655933</v>
       </c>
       <c r="R11" t="n">
-        <v>6541241.59220575</v>
+        <v>6541429.325337943</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1902,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108600738</v>
+        <v>108600571</v>
       </c>
       <c r="B12" t="n">
-        <v>78098</v>
+        <v>8377</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1914,34 +1912,36 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>528501.4884462073</v>
+        <v>528457.9539003669</v>
       </c>
       <c r="R12" t="n">
-        <v>6541400.825744567</v>
+        <v>6541148.642409162</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108600599</v>
+        <v>108600554</v>
       </c>
       <c r="B13" t="n">
         <v>8377</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>528440.9271998855</v>
+        <v>528511.5568710293</v>
       </c>
       <c r="R13" t="n">
-        <v>6541148.516224748</v>
+        <v>6541087.231412024</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108600803</v>
+        <v>108600599</v>
       </c>
       <c r="B14" t="n">
-        <v>8367</v>
+        <v>8377</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>106554</v>
+        <v>106545</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2183,7 +2183,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>528455.3571655933</v>
+        <v>528440.9271998855</v>
       </c>
       <c r="R14" t="n">
-        <v>6541429.325337943</v>
+        <v>6541148.516224748</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 63813-2019.xlsx
+++ b/artfynd/A 63813-2019.xlsx
@@ -802,10 +802,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108600717</v>
+        <v>108600571</v>
       </c>
       <c r="B3" t="n">
-        <v>89412</v>
+        <v>8377</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,38 +814,36 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -853,10 +851,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>528514.2341294074</v>
+        <v>528457.9539003669</v>
       </c>
       <c r="R3" t="n">
-        <v>6541351.991765272</v>
+        <v>6541148.642409162</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -926,10 +924,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>108600671</v>
+        <v>108600717</v>
       </c>
       <c r="B4" t="n">
-        <v>8377</v>
+        <v>89412</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,36 +936,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>106545</v>
+        <v>5442</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -975,10 +975,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>528575.3995984152</v>
+        <v>528514.2341294074</v>
       </c>
       <c r="R4" t="n">
-        <v>6541244.801401596</v>
+        <v>6541351.991765272</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1048,10 +1048,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>108600691</v>
+        <v>108600671</v>
       </c>
       <c r="B5" t="n">
-        <v>78098</v>
+        <v>8377</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,34 +1060,36 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1095,10 +1097,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>528584.0134725916</v>
+        <v>528575.3995984152</v>
       </c>
       <c r="R5" t="n">
-        <v>6541265.982774138</v>
+        <v>6541244.801401596</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,10 +1170,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>108600864</v>
+        <v>108600691</v>
       </c>
       <c r="B6" t="n">
-        <v>5426</v>
+        <v>78098</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,32 +1186,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>101410</v>
+        <v>6453</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>528502.4862113618</v>
+        <v>528584.0134725916</v>
       </c>
       <c r="R6" t="n">
-        <v>6541335.938193527</v>
+        <v>6541265.982774138</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108600622</v>
+        <v>108600554</v>
       </c>
       <c r="B7" t="n">
-        <v>89412</v>
+        <v>8377</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1302,38 +1302,36 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5442</v>
+        <v>106545</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Hartig, 1834)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1341,10 +1339,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>528458.0765920902</v>
+        <v>528511.5568710293</v>
       </c>
       <c r="R7" t="n">
-        <v>6541201.695022714</v>
+        <v>6541087.231412024</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1414,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>108600779</v>
+        <v>108600864</v>
       </c>
       <c r="B8" t="n">
-        <v>8377</v>
+        <v>5426</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1426,25 +1424,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>106545</v>
+        <v>101410</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1453,7 +1451,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1463,10 +1461,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>528499.9212518559</v>
+        <v>528502.4862113618</v>
       </c>
       <c r="R8" t="n">
-        <v>6541472.918336567</v>
+        <v>6541335.938193527</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1536,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>108600651</v>
+        <v>108600622</v>
       </c>
       <c r="B9" t="n">
-        <v>8367</v>
+        <v>89412</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1548,36 +1546,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>106554</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>528559.4282089664</v>
+        <v>528458.0765920902</v>
       </c>
       <c r="R9" t="n">
-        <v>6541241.59220575</v>
+        <v>6541201.695022714</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>108600738</v>
+        <v>108600779</v>
       </c>
       <c r="B10" t="n">
-        <v>78098</v>
+        <v>8377</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1670,34 +1670,36 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6453</v>
+        <v>106545</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1705,10 +1707,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>528501.4884462073</v>
+        <v>528499.9212518559</v>
       </c>
       <c r="R10" t="n">
-        <v>6541400.825744567</v>
+        <v>6541472.918336567</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1778,7 +1780,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>108600803</v>
+        <v>108600651</v>
       </c>
       <c r="B11" t="n">
         <v>8367</v>
@@ -1827,10 +1829,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>528455.3571655933</v>
+        <v>528559.4282089664</v>
       </c>
       <c r="R11" t="n">
-        <v>6541429.325337943</v>
+        <v>6541241.59220575</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1900,10 +1902,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>108600571</v>
+        <v>108600738</v>
       </c>
       <c r="B12" t="n">
-        <v>8377</v>
+        <v>78098</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1912,36 +1914,34 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>106545</v>
+        <v>6453</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>528457.9539003669</v>
+        <v>528501.4884462073</v>
       </c>
       <c r="R12" t="n">
-        <v>6541148.642409162</v>
+        <v>6541400.825744567</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>108600554</v>
+        <v>108600599</v>
       </c>
       <c r="B13" t="n">
         <v>8377</v>
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>528511.5568710293</v>
+        <v>528440.9271998855</v>
       </c>
       <c r="R13" t="n">
-        <v>6541087.231412024</v>
+        <v>6541148.516224748</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>108600599</v>
+        <v>108600803</v>
       </c>
       <c r="B14" t="n">
-        <v>8377</v>
+        <v>8367</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2160,21 +2160,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>106545</v>
+        <v>106554</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2183,7 +2183,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>528440.9271998855</v>
+        <v>528455.3571655933</v>
       </c>
       <c r="R14" t="n">
-        <v>6541148.516224748</v>
+        <v>6541429.325337943</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
